--- a/internal/test/excels/test.xlsx
+++ b/internal/test/excels/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12980" activeTab="2"/>
+    <workbookView windowWidth="30240" windowHeight="13240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="道具|Item" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>itemId</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
   <si>
     <t>type</t>
@@ -1393,20 +1396,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="3" width="31.6153846153846" customWidth="1"/>
-    <col min="5" max="5" width="19.2307692307692" customWidth="1"/>
-    <col min="6" max="6" width="43.7692307692308" customWidth="1"/>
+    <col min="2" max="4" width="31.6153846153846" customWidth="1"/>
+    <col min="6" max="6" width="19.2307692307692" customWidth="1"/>
+    <col min="7" max="7" width="43.7692307692308" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1425,8 +1428,11 @@
       <c r="F1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1434,10 +1440,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1445,8 +1451,11 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1456,22 +1465,22 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
       </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -1487,81 +1496,87 @@
       <c r="F5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
         <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
+    <row r="16" spans="1:2">
+      <c r="A16">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
         <v>7</v>
       </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18">
         <v>4</v>
       </c>
     </row>
@@ -1574,13 +1589,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="K12" sqref="J11 K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="50.4615384615385" customWidth="1"/>
     <col min="5" max="5" width="13.9230769230769" customWidth="1"/>
@@ -1588,22 +1603,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="17" spans="1:6">
@@ -1611,7 +1626,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1623,38 +1638,41 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    <row r="3" spans="2:2">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
-        <v>21</v>
+      <c r="E6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/internal/test/excels/test.xlsx
+++ b/internal/test/excels/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13240" activeTab="2"/>
+    <workbookView windowWidth="30240" windowHeight="13240"/>
   </bookViews>
   <sheets>
     <sheet name="道具|Item" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -64,6 +64,9 @@
     <t>c/s</t>
   </si>
   <si>
+    <t xml:space="preserve"># </t>
+  </si>
+  <si>
     <t>itemId</t>
   </si>
   <si>
@@ -145,13 +148,22 @@
     <t>备注</t>
   </si>
   <si>
+    <t># test</t>
+  </si>
+  <si>
     <t>maxInt32</t>
   </si>
   <si>
+    <t>#itest</t>
+  </si>
+  <si>
     <t>systemName</t>
   </si>
   <si>
     <t>abc</t>
+  </si>
+  <si>
+    <t>#sdadasd</t>
   </si>
   <si>
     <t>globalItemId</t>
@@ -1305,13 +1317,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q5" sqref="D6 Q5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1371,19 +1383,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
         <v>2</v>
       </c>
-      <c r="D7">
+      <c r="D9">
         <v>2</v>
       </c>
     </row>
@@ -1417,19 +1439,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1440,19 +1462,19 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1469,15 +1491,15 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -1505,19 +1527,19 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="5:5">
@@ -1528,7 +1550,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1539,7 +1561,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1547,7 +1569,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1555,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -1566,7 +1588,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1574,7 +1596,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -1589,13 +1611,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="J11 K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="50.4615384615385" customWidth="1"/>
     <col min="5" max="5" width="13.9230769230769" customWidth="1"/>
@@ -1603,76 +1625,88 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" ht="17" spans="1:6">
-      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" ht="17" spans="1:6">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>999</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+    <row r="4" ht="17" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4">
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5">
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>22</v>
+      <c r="E7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/internal/test/excels/test.xlsx
+++ b/internal/test/excels/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13240"/>
+    <workbookView windowWidth="30240" windowHeight="13180"/>
   </bookViews>
   <sheets>
     <sheet name="道具|Item" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>unique</t>
+    <t>unique=1</t>
   </si>
   <si>
     <t>c</t>
@@ -1320,7 +1320,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -1421,7 +1421,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>

--- a/internal/test/excels/test.xlsx
+++ b/internal/test/excels/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13180"/>
+    <workbookView windowWidth="30240" windowHeight="13180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="道具|Item" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -100,73 +100,79 @@
     <t>[]itemCount</t>
   </si>
   <si>
+    <t>compKey=test,0</t>
+  </si>
+  <si>
+    <t>link=Item.ID|compKey=test,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    名称1   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1    </t>
+  </si>
+  <si>
+    <t>{"id":2,  "count":10}</t>
+  </si>
+  <si>
+    <t>[{"id": 1, "count": 10}, {"id": 2, "count": 10}]</t>
+  </si>
+  <si>
+    <t>名称2</t>
+  </si>
+  <si>
+    <t>名称3</t>
+  </si>
+  <si>
+    <t>名称4</t>
+  </si>
+  <si>
+    <t>名称5</t>
+  </si>
+  <si>
+    <t>名称6</t>
+  </si>
+  <si>
+    <t>名称7</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>字段</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>规则</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t># test</t>
+  </si>
+  <si>
+    <t>maxInt32</t>
+  </si>
+  <si>
+    <t>#itest</t>
+  </si>
+  <si>
+    <t>systemName</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>#sdadasd</t>
+  </si>
+  <si>
+    <t>globalItemId</t>
+  </si>
+  <si>
     <t>link=Item.ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    名称1   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     1    </t>
-  </si>
-  <si>
-    <t>{"id":2,  "count":10}</t>
-  </si>
-  <si>
-    <t>[{"id": 1, "count": 10}, {"id": 2, "count": 10}]</t>
-  </si>
-  <si>
-    <t>名称2</t>
-  </si>
-  <si>
-    <t>名称3</t>
-  </si>
-  <si>
-    <t>名称4</t>
-  </si>
-  <si>
-    <t>名称5</t>
-  </si>
-  <si>
-    <t>名称6</t>
-  </si>
-  <si>
-    <t>名称7</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>字段</t>
-  </si>
-  <si>
-    <t>值</t>
-  </si>
-  <si>
-    <t>规则</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t># test</t>
-  </si>
-  <si>
-    <t>maxInt32</t>
-  </si>
-  <si>
-    <t>#itest</t>
-  </si>
-  <si>
-    <t>systemName</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>#sdadasd</t>
-  </si>
-  <si>
-    <t>globalItemId</t>
   </si>
 </sst>
 </file>
@@ -1319,8 +1325,8 @@
   <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -1420,8 +1426,8 @@
   <sheetPr/>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1497,9 +1503,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -1527,19 +1536,19 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="5:5">
@@ -1550,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1561,7 +1570,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1569,7 +1578,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1577,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -1588,7 +1597,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1596,7 +1605,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -1625,27 +1634,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" ht="17" spans="1:6">
@@ -1653,7 +1662,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1667,7 +1676,7 @@
     </row>
     <row r="4" ht="17" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1675,13 +1684,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5">
         <v>456</v>
@@ -1689,7 +1698,7 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1697,7 +1706,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -1706,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/internal/test/excels/test.xlsx
+++ b/internal/test/excels/test.xlsx
@@ -4,12 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13180" activeTab="1"/>
+    <workbookView windowWidth="30240" windowHeight="13180" tabRatio="872" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="道具|Item" sheetId="1" r:id="rId1"/>
-    <sheet name="任务|Main_Tasktt_testTask" sheetId="2" r:id="rId2"/>
-    <sheet name="全局配置表|GlobalDefine" sheetId="3" r:id="rId3"/>
+    <sheet name="任务|Task" sheetId="2" r:id="rId2"/>
+    <sheet name="全局配置表|GlobalTest" sheetId="3" r:id="rId3"/>
+    <sheet name="测试Unique规则|TestUnique" sheetId="4" r:id="rId4"/>
+    <sheet name="测试link规则|TestLinkSrc" sheetId="5" r:id="rId5"/>
+    <sheet name="测试link规则|TestLinkDst" sheetId="6" r:id="rId6"/>
+    <sheet name="测试CompKey|TestCompKey" sheetId="7" r:id="rId7"/>
+    <sheet name="测试Group|TestGroup" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
@@ -55,22 +60,52 @@
     <t>string</t>
   </si>
   <si>
-    <t>unique=1</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>c/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># </t>
-  </si>
-  <si>
-    <t>itemId</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>道具1</t>
+  </si>
+  <si>
+    <t>icon1</t>
+  </si>
+  <si>
+    <t>道具2</t>
+  </si>
+  <si>
+    <t>icon2</t>
+  </si>
+  <si>
+    <t>道具3</t>
+  </si>
+  <si>
+    <t>icon3</t>
+  </si>
+  <si>
+    <t>道具4</t>
+  </si>
+  <si>
+    <t>icon4</t>
+  </si>
+  <si>
+    <t>道具5</t>
+  </si>
+  <si>
+    <t>icon5</t>
+  </si>
+  <si>
+    <t>道具6</t>
+  </si>
+  <si>
+    <t>icon6</t>
+  </si>
+  <si>
+    <t>道具7</t>
+  </si>
+  <si>
+    <t>icon7</t>
+  </si>
+  <si>
+    <t>道具8</t>
+  </si>
+  <si>
+    <t>icon8</t>
   </si>
   <si>
     <t>type</t>
@@ -79,100 +114,130 @@
     <t>rewards</t>
   </si>
   <si>
-    <t>rewards2</t>
-  </si>
-  <si>
-    <t>道具ID</t>
-  </si>
-  <si>
     <t>类型</t>
   </si>
   <si>
     <t>奖励</t>
   </si>
   <si>
-    <t>jianlgi</t>
+    <t>[]itemCount</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>名称1</t>
+  </si>
+  <si>
+    <t>名称2</t>
+  </si>
+  <si>
+    <t>名称3</t>
+  </si>
+  <si>
+    <t>名称4</t>
+  </si>
+  <si>
+    <t>名称5</t>
+  </si>
+  <si>
+    <t>名称6</t>
+  </si>
+  <si>
+    <t>名称7</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>字段</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>规则</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t># test</t>
+  </si>
+  <si>
+    <t>maxInt32</t>
+  </si>
+  <si>
+    <t>#itest</t>
+  </si>
+  <si>
+    <t>systemName</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>#sdadasd</t>
+  </si>
+  <si>
+    <t>globalItemId</t>
+  </si>
+  <si>
+    <t>link=Item.ID</t>
   </si>
   <si>
     <t>itemCount</t>
   </si>
   <si>
-    <t>[]itemCount</t>
-  </si>
-  <si>
-    <t>compKey=test,0</t>
-  </si>
-  <si>
-    <t>link=Item.ID|compKey=test,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    名称1   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     1    </t>
-  </si>
-  <si>
-    <t>{"id":2,  "count":10}</t>
-  </si>
-  <si>
-    <t>[{"id": 1, "count": 10}, {"id": 2, "count": 10}]</t>
-  </si>
-  <si>
-    <t>名称2</t>
-  </si>
-  <si>
-    <t>名称3</t>
-  </si>
-  <si>
-    <t>名称4</t>
-  </si>
-  <si>
-    <t>名称5</t>
-  </si>
-  <si>
-    <t>名称6</t>
-  </si>
-  <si>
-    <t>名称7</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>字段</t>
-  </si>
-  <si>
-    <t>值</t>
-  </si>
-  <si>
-    <t>规则</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t># test</t>
-  </si>
-  <si>
-    <t>maxInt32</t>
-  </si>
-  <si>
-    <t>#itest</t>
-  </si>
-  <si>
-    <t>systemName</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>#sdadasd</t>
-  </si>
-  <si>
-    <t>globalItemId</t>
-  </si>
-  <si>
-    <t>link=Item.ID</t>
+    <t>{"id": 2, "count": 10}</t>
+  </si>
+  <si>
+    <t>Key1</t>
+  </si>
+  <si>
+    <t>key2</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>LocalKey1</t>
+  </si>
+  <si>
+    <t>LocalKey2</t>
+  </si>
+  <si>
+    <t>link=TestLinkDst.ID</t>
+  </si>
+  <si>
+    <t>link=TestLinkDst.Key</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Key2</t>
+  </si>
+  <si>
+    <t>Key3</t>
+  </si>
+  <si>
+    <t>ckey=key1_key2_key3,0</t>
+  </si>
+  <si>
+    <t>ckey=key1_key2_key3,1</t>
+  </si>
+  <si>
+    <t>ckey=key1_key2_key3,2</t>
+  </si>
+  <si>
+    <t>group=test1,0</t>
+  </si>
+  <si>
+    <t>group=test1,1</t>
+  </si>
+  <si>
+    <t>group=test1,2</t>
   </si>
 </sst>
 </file>
@@ -185,8 +250,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -338,7 +411,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,6 +420,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -532,12 +611,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -658,55 +752,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,82 +812,97 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1323,96 +1429,178 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="4:4">
-      <c r="D4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>11</v>
+      <c r="D6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1424,191 +1612,175 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="4" width="31.6153846153846" customWidth="1"/>
-    <col min="6" max="6" width="19.2307692307692" customWidth="1"/>
-    <col min="7" max="7" width="43.7692307692308" customWidth="1"/>
+    <col min="3" max="3" width="31.6153846153846" customWidth="1"/>
+    <col min="4" max="4" width="19.2307692307692" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="str">
+        <f>"[{"&amp;"""id"""&amp;":"&amp;'道具|Item'!A6&amp;", "&amp;"""count"""&amp;":10}]"</f>
+        <v>[{"id":1, "count":10}]</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="5:5">
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="str">
+        <f>"[{"&amp;"""id"""&amp;":"&amp;'道具|Item'!A7&amp;", "&amp;"""count"""&amp;":10}]"</f>
+        <v>[{"id":2, "count":10}]</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="str">
+        <f>"[{"&amp;"""id"""&amp;":"&amp;'道具|Item'!A8&amp;", "&amp;"""count"""&amp;":10}]"</f>
+        <v>[{"id":3, "count":10}]</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="str">
+        <f>"[{"&amp;"""id"""&amp;":"&amp;'道具|Item'!A9&amp;", "&amp;"""count"""&amp;":10}]"</f>
+        <v>[{"id":4, "count":10}]</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="str">
+        <f>"[{"&amp;"""id"""&amp;":"&amp;'道具|Item'!A10&amp;", "&amp;"""count"""&amp;":10}]"</f>
+        <v>[{"id":5, "count":10}]</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="str">
+        <f>"[{"&amp;"""id"""&amp;":"&amp;'道具|Item'!A11&amp;", "&amp;"""count"""&amp;":10}]"</f>
+        <v>[{"id":6, "count":10}]</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
         <v>7</v>
       </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="str">
+        <f>"[{"&amp;"""id"""&amp;":"&amp;'道具|Item'!A12&amp;", "&amp;"""count"""&amp;":10}]"</f>
+        <v>[{"id":7, "count":10}]</v>
       </c>
     </row>
   </sheetData>
@@ -1620,49 +1792,48 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="50.4615384615385" customWidth="1"/>
+    <col min="3" max="3" width="11.1538461538462" customWidth="1"/>
+    <col min="4" max="4" width="20.9230769230769" customWidth="1"/>
     <col min="5" max="5" width="13.9230769230769" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" ht="17" spans="1:6">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" ht="17" spans="2:6">
+      <c r="B3" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1674,39 +1845,33 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" ht="17" spans="2:2">
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
+    <row r="4" s="3" customFormat="1" ht="17" spans="1:1">
+      <c r="A4" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F5">
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
+    <row r="6" s="3" customFormat="1" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -1715,7 +1880,803 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="21.8461538461538" customWidth="1"/>
+    <col min="3" max="3" width="22.9230769230769" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="4" width="17.8461538461538" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:B12" si="0">A6*1000+1</f>
+        <v>1001</v>
+      </c>
+      <c r="C6">
+        <f>A6*1000+2</f>
+        <v>1002</v>
+      </c>
+      <c r="D6">
+        <f>A6*1000+3</f>
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>2001</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C12" si="1">A7*1000+2</f>
+        <v>2002</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D12" si="2">A7*1000+3</f>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>3001</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>3002</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>4001</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>4002</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>5001</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>5002</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>6001</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>6002</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>7001</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>7002</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>7003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="4" width="16.6153846153846" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:B12" si="0">A6*1000+1</f>
+        <v>1001</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C12" si="1">A6*1000+2</f>
+        <v>1002</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D12" si="2">A6*1000+3</f>
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>2001</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>2002</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>3001</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>3002</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>4001</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>4002</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>5001</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>5002</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>6001</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>6002</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>7001</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>7002</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>7003</v>
       </c>
     </row>
   </sheetData>

--- a/internal/test/excels/test.xlsx
+++ b/internal/test/excels/test.xlsx
@@ -4,12 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13180" activeTab="1"/>
+    <workbookView windowWidth="30240" windowHeight="13180" tabRatio="872" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="道具|Item" sheetId="1" r:id="rId1"/>
-    <sheet name="任务|Main_Tasktt_testTask" sheetId="2" r:id="rId2"/>
-    <sheet name="全局配置表|GlobalDefine" sheetId="3" r:id="rId3"/>
+    <sheet name="任务|Task" sheetId="2" r:id="rId2"/>
+    <sheet name="全局配置表|GlobalTest" sheetId="3" r:id="rId3"/>
+    <sheet name="测试Unique规则|TestUnique" sheetId="4" r:id="rId4"/>
+    <sheet name="测试link规则|TestLinkSrc" sheetId="5" r:id="rId5"/>
+    <sheet name="测试link规则|TestLinkDst" sheetId="6" r:id="rId6"/>
+    <sheet name="测试CompKey|TestCompKey" sheetId="7" r:id="rId7"/>
+    <sheet name="测试Group|TestGroup" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -55,124 +60,187 @@
     <t>string</t>
   </si>
   <si>
+    <t>道具1</t>
+  </si>
+  <si>
+    <t>icon1</t>
+  </si>
+  <si>
+    <t>道具2</t>
+  </si>
+  <si>
+    <t>icon2</t>
+  </si>
+  <si>
+    <t>道具3</t>
+  </si>
+  <si>
+    <t>icon3</t>
+  </si>
+  <si>
+    <t>道具4</t>
+  </si>
+  <si>
+    <t>icon4</t>
+  </si>
+  <si>
+    <t>道具5</t>
+  </si>
+  <si>
+    <t>icon5</t>
+  </si>
+  <si>
+    <t>道具6</t>
+  </si>
+  <si>
+    <t>icon6</t>
+  </si>
+  <si>
+    <t>道具7</t>
+  </si>
+  <si>
+    <t>icon7</t>
+  </si>
+  <si>
+    <t>道具8</t>
+  </si>
+  <si>
+    <t>icon8</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>rewards</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>奖励</t>
+  </si>
+  <si>
+    <t>[]itemCount</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>名称1</t>
+  </si>
+  <si>
+    <t>名称2</t>
+  </si>
+  <si>
+    <t>名称3</t>
+  </si>
+  <si>
+    <t>名称4</t>
+  </si>
+  <si>
+    <t>名称5</t>
+  </si>
+  <si>
+    <t>名称6</t>
+  </si>
+  <si>
+    <t>名称7</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>字段</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>规则</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t># test</t>
+  </si>
+  <si>
+    <t>maxInt32</t>
+  </si>
+  <si>
+    <t>#itest</t>
+  </si>
+  <si>
+    <t>systemName</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>#sdadasd</t>
+  </si>
+  <si>
+    <t>globalItemId</t>
+  </si>
+  <si>
+    <t>link=Item.ID</t>
+  </si>
+  <si>
+    <t>itemCount</t>
+  </si>
+  <si>
+    <t>{"id": 2, "count": 10}</t>
+  </si>
+  <si>
+    <t>Key1</t>
+  </si>
+  <si>
+    <t>key2</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
     <t>unique=1</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>c/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># </t>
-  </si>
-  <si>
-    <t>itemId</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>rewards</t>
-  </si>
-  <si>
-    <t>rewards2</t>
-  </si>
-  <si>
-    <t>道具ID</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>奖励</t>
-  </si>
-  <si>
-    <t>jianlgi</t>
-  </si>
-  <si>
-    <t>itemCount</t>
-  </si>
-  <si>
-    <t>[]itemCount</t>
-  </si>
-  <si>
-    <t>compKey=test,0</t>
-  </si>
-  <si>
-    <t>link=Item.ID|compKey=test,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    名称1   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     1    </t>
-  </si>
-  <si>
-    <t>{"id":2,  "count":10}</t>
-  </si>
-  <si>
-    <t>[{"id": 1, "count": 10}, {"id": 2, "count": 10}]</t>
-  </si>
-  <si>
-    <t>名称2</t>
-  </si>
-  <si>
-    <t>名称3</t>
-  </si>
-  <si>
-    <t>名称4</t>
-  </si>
-  <si>
-    <t>名称5</t>
-  </si>
-  <si>
-    <t>名称6</t>
-  </si>
-  <si>
-    <t>名称7</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>字段</t>
-  </si>
-  <si>
-    <t>值</t>
-  </si>
-  <si>
-    <t>规则</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t># test</t>
-  </si>
-  <si>
-    <t>maxInt32</t>
-  </si>
-  <si>
-    <t>#itest</t>
-  </si>
-  <si>
-    <t>systemName</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>#sdadasd</t>
-  </si>
-  <si>
-    <t>globalItemId</t>
-  </si>
-  <si>
-    <t>link=Item.ID</t>
+    <t>LocalKey1</t>
+  </si>
+  <si>
+    <t>LocalKey2</t>
+  </si>
+  <si>
+    <t>link=TestLinkDst.ID</t>
+  </si>
+  <si>
+    <t>link=TestLinkDst.Key</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Key2</t>
+  </si>
+  <si>
+    <t>Key3</t>
+  </si>
+  <si>
+    <t>cmpKey=key1_key2_key3,0</t>
+  </si>
+  <si>
+    <t>cmpKey=key1_key2_key3,1</t>
+  </si>
+  <si>
+    <t>cmpKey=key1_key2_key3,2</t>
+  </si>
+  <si>
+    <t>group=test1,0</t>
+  </si>
+  <si>
+    <t>group=test1,1</t>
+  </si>
+  <si>
+    <t>group=test1,2</t>
   </si>
 </sst>
 </file>
@@ -185,8 +253,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -338,7 +414,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,6 +423,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -532,12 +614,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -658,55 +755,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,82 +815,97 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1323,96 +1432,178 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="4:4">
-      <c r="D4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>11</v>
+      <c r="D6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1424,191 +1615,175 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="4" width="31.6153846153846" customWidth="1"/>
-    <col min="6" max="6" width="19.2307692307692" customWidth="1"/>
-    <col min="7" max="7" width="43.7692307692308" customWidth="1"/>
+    <col min="3" max="3" width="31.6153846153846" customWidth="1"/>
+    <col min="4" max="4" width="19.2307692307692" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="str">
+        <f>"[{"&amp;"""id"""&amp;":"&amp;'道具|Item'!A6&amp;", "&amp;"""count"""&amp;":10}]"</f>
+        <v>[{"id":1, "count":10}]</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="5:5">
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="str">
+        <f>"[{"&amp;"""id"""&amp;":"&amp;'道具|Item'!A7&amp;", "&amp;"""count"""&amp;":10}]"</f>
+        <v>[{"id":2, "count":10}]</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="str">
+        <f>"[{"&amp;"""id"""&amp;":"&amp;'道具|Item'!A8&amp;", "&amp;"""count"""&amp;":10}]"</f>
+        <v>[{"id":3, "count":10}]</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="str">
+        <f>"[{"&amp;"""id"""&amp;":"&amp;'道具|Item'!A9&amp;", "&amp;"""count"""&amp;":10}]"</f>
+        <v>[{"id":4, "count":10}]</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="str">
+        <f>"[{"&amp;"""id"""&amp;":"&amp;'道具|Item'!A10&amp;", "&amp;"""count"""&amp;":10}]"</f>
+        <v>[{"id":5, "count":10}]</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="str">
+        <f>"[{"&amp;"""id"""&amp;":"&amp;'道具|Item'!A11&amp;", "&amp;"""count"""&amp;":10}]"</f>
+        <v>[{"id":6, "count":10}]</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
         <v>7</v>
       </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="str">
+        <f>"[{"&amp;"""id"""&amp;":"&amp;'道具|Item'!A12&amp;", "&amp;"""count"""&amp;":10}]"</f>
+        <v>[{"id":7, "count":10}]</v>
       </c>
     </row>
   </sheetData>
@@ -1620,49 +1795,48 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="50.4615384615385" customWidth="1"/>
+    <col min="3" max="3" width="11.1538461538462" customWidth="1"/>
+    <col min="4" max="4" width="20.9230769230769" customWidth="1"/>
     <col min="5" max="5" width="13.9230769230769" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" ht="17" spans="1:6">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" ht="17" spans="2:6">
+      <c r="B3" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1674,39 +1848,33 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" ht="17" spans="2:2">
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
+    <row r="4" s="3" customFormat="1" ht="17" spans="1:1">
+      <c r="A4" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F5">
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
+    <row r="6" s="3" customFormat="1" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -1715,7 +1883,803 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="21.8461538461538" customWidth="1"/>
+    <col min="3" max="3" width="22.9230769230769" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="4" width="17.8461538461538" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:B12" si="0">A6*1000+1</f>
+        <v>1001</v>
+      </c>
+      <c r="C6">
+        <f>A6*1000+2</f>
+        <v>1002</v>
+      </c>
+      <c r="D6">
+        <f>A6*1000+3</f>
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>2001</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C12" si="1">A7*1000+2</f>
+        <v>2002</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D12" si="2">A7*1000+3</f>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>3001</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>3002</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>4001</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>4002</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>5001</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>5002</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>6001</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>6002</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>7001</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>7002</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>7003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="4" width="16.6153846153846" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:B12" si="0">A6*1000+1</f>
+        <v>1001</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C12" si="1">A6*1000+2</f>
+        <v>1002</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D12" si="2">A6*1000+3</f>
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>2001</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>2002</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>3001</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>3002</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>4001</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>4002</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>5001</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>5002</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>6001</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>6002</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>7001</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>7002</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>7003</v>
       </c>
     </row>
   </sheetData>

--- a/internal/test/excels/test.xlsx
+++ b/internal/test/excels/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13180" tabRatio="872" activeTab="2"/>
+    <workbookView windowWidth="30240" windowHeight="13200" tabRatio="872" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="道具|Item" sheetId="1" r:id="rId1"/>
@@ -1795,7 +1795,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -1839,7 +1839,7 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>999</v>
+        <v>111</v>
       </c>
       <c r="F3">
         <v>123</v>

--- a/internal/test/excels/test.xlsx
+++ b/internal/test/excels/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13200" tabRatio="872" activeTab="2"/>
+    <workbookView windowWidth="30240" windowHeight="13240" tabRatio="872" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="道具|Item" sheetId="1" r:id="rId1"/>
@@ -222,7 +222,7 @@
     <t>Key3</t>
   </si>
   <si>
-    <t>ckey=key1_key2_key3,0</t>
+    <t>ckey=key1_key2_key3,0|group=key1,0</t>
   </si>
   <si>
     <t>ckey=key1_key2_key3,1</t>
@@ -231,7 +231,7 @@
     <t>ckey=key1_key2_key3,2</t>
   </si>
   <si>
-    <t>group=test1,0</t>
+    <t>group=test1,0|group=Key1,0</t>
   </si>
   <si>
     <t>group=test1,1</t>
@@ -1794,7 +1794,7 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2292,8 +2292,8 @@
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -2492,7 +2492,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>

--- a/internal/test/excels/test.xlsx
+++ b/internal/test/excels/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13240" tabRatio="872" firstSheet="2" activeTab="6"/>
+    <workbookView windowWidth="30240" windowHeight="13200" tabRatio="872" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="道具|Item" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
     <t>itemCount</t>
   </si>
   <si>
-    <t>{"id": 2, "count": 10}</t>
+    <t>{"id": 2, count: 10}</t>
   </si>
   <si>
     <t>Key1</t>
@@ -1794,8 +1794,8 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -2292,8 +2292,8 @@
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
